--- a/src/main/webapp/resources/excel/Template_Update_CSHT.xlsx
+++ b/src/main/webapp/resources/excel/Template_Update_CSHT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Media_Soft\GIT\RIMS\src\main\webapp\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\RIMS\source\RIMS\src\main\webapp\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0BDBCF1E-64B7-42E4-BFC0-7C14746134DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{496679B4-8A15-4E35-9953-F7A5B48B48AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
   <si>
     <t>Thông tin hạ tầng</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Đơn vị quản lý</t>
+  </si>
+  <si>
+    <t>Mã quy hoạch vị trí</t>
   </si>
 </sst>
 </file>
@@ -462,19 +465,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +500,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -537,7 +540,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -577,7 +580,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -617,7 +620,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -657,7 +660,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -697,7 +700,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -737,7 +740,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -777,7 +780,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -817,7 +820,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -857,7 +860,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -897,7 +900,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -937,7 +940,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -977,7 +980,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1017,7 +1020,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1057,7 +1060,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1097,7 +1100,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1137,7 +1140,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1177,7 +1180,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1217,7 +1220,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1257,7 +1260,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1297,7 +1300,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1337,7 +1340,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1377,7 +1380,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1417,7 +1420,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1457,7 +1460,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1497,7 +1500,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1537,7 +1540,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1577,7 +1580,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1617,7 +1620,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1657,7 +1660,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1697,7 +1700,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1737,7 +1740,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1777,7 +1780,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1817,7 +1820,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1857,7 +1860,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1897,7 +1900,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1937,7 +1940,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1977,7 +1980,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2017,7 +2020,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2057,7 +2060,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2097,7 +2100,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2137,7 +2140,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2177,7 +2180,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2217,7 +2220,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2257,7 +2260,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2297,7 +2300,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2337,7 +2340,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2377,7 +2380,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2417,7 +2420,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2457,7 +2460,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2497,7 +2500,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2537,7 +2540,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2577,7 +2580,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2617,7 +2620,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2955,491 +2958,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="2" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX1" s="35"/>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="38"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="K2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="L2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="M2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="N2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="O2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="P2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="Q2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="33" t="s">
+      <c r="R2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="33" t="s">
+      <c r="W2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AB2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AC2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AD2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AE2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AF2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AG2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AM2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="33" t="s">
+      <c r="AN2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AT2" s="33" t="s">
+      <c r="AU2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="33" t="s">
+      <c r="AV2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="33" t="s">
+      <c r="AW2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AW2" s="33" t="s">
+      <c r="AX2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="33" t="s">
+      <c r="AY2" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="1" t="s">
+    <row r="3" spans="1:51" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="11" t="s">
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="14" t="s">
+      <c r="AI3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AJ3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ3" s="16" t="s">
+      <c r="AK3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AK3" s="17" t="s">
+      <c r="AL3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AL3" s="18" t="s">
+      <c r="AM3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AM3" s="19" t="s">
+      <c r="AN3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="20" t="s">
+      <c r="AO3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AO3" s="21" t="s">
+      <c r="AP3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AP3" s="22" t="s">
+      <c r="AQ3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" s="23" t="s">
+      <c r="AR3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AR3" s="24" t="s">
+      <c r="AS3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="37"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
     </row>
-    <row r="4" spans="1:50" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>44</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="I4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="J4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="28">
+      <c r="K4" s="28">
         <v>0</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="L4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="28">
+      <c r="M4" s="28">
         <v>2</v>
       </c>
-      <c r="M4" s="28">
+      <c r="N4" s="28">
         <v>42</v>
       </c>
-      <c r="N4" s="29">
+      <c r="O4" s="29">
         <v>0</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="P4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="Q4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="R4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="28">
+      <c r="S4" s="28">
         <v>150</v>
       </c>
-      <c r="S4" s="28">
+      <c r="T4" s="28">
         <v>3</v>
       </c>
-      <c r="T4" s="28">
+      <c r="U4" s="28">
         <v>15</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="V4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="28" t="s">
+      <c r="W4" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="W4" s="28">
-        <v>0</v>
       </c>
       <c r="X4" s="28">
         <v>0</v>
@@ -3447,50 +3453,50 @@
       <c r="Y4" s="28">
         <v>0</v>
       </c>
-      <c r="Z4" s="26" t="s">
+      <c r="Z4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AA4" s="30" t="s">
+      <c r="AB4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="28" t="s">
+      <c r="AC4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="28">
+      <c r="AD4" s="28">
         <v>0</v>
       </c>
-      <c r="AD4" s="30" t="s">
+      <c r="AE4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AE4" s="26" t="s">
+      <c r="AF4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AF4" s="28" t="s">
+      <c r="AG4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" s="28">
+      <c r="AH4" s="28">
         <v>300</v>
       </c>
-      <c r="AH4" s="28">
+      <c r="AI4" s="28">
         <v>2</v>
       </c>
-      <c r="AI4" s="28">
+      <c r="AJ4" s="28">
         <v>24</v>
       </c>
-      <c r="AJ4" s="28">
+      <c r="AK4" s="28">
         <v>4</v>
       </c>
-      <c r="AK4" s="26" t="s">
+      <c r="AL4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AL4" s="26" t="s">
+      <c r="AM4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AM4" s="28" t="s">
+      <c r="AN4" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="AN4" s="28">
-        <v>0</v>
       </c>
       <c r="AO4" s="28">
         <v>0</v>
@@ -3501,54 +3507,42 @@
       <c r="AQ4" s="28">
         <v>0</v>
       </c>
-      <c r="AR4" s="26" t="s">
+      <c r="AR4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="28" t="s">
+      <c r="AT4" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AT4" s="30" t="s">
+      <c r="AU4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AU4" s="28">
+      <c r="AV4" s="28">
         <v>100</v>
       </c>
-      <c r="AV4" s="28">
+      <c r="AW4" s="28">
         <v>3</v>
       </c>
-      <c r="AW4" s="28">
+      <c r="AX4" s="28">
         <v>2</v>
       </c>
-      <c r="AX4" s="28">
+      <c r="AY4" s="28">
         <v>22000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="A1:AX1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="AL2:AR2"/>
+  <mergeCells count="32">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A1:AY1"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AM2:AS2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -3556,6 +3550,22 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
